--- a/other2/thomas/usaco/shuffle/shuffle.xlsx
+++ b/other2/thomas/usaco/shuffle/shuffle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\competitive-programming\other2\thomas\usaco\shuffle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\other2\thomas\usaco\shuffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16574AD7-1B41-4A18-8C2C-2DE54D4D5D97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1B1A6-8E03-4FE6-8EC9-7C4315E75878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="11091" xr2:uid="{D83D4C4C-BB6B-4D78-954C-C79228BD2D65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11085" xr2:uid="{D83D4C4C-BB6B-4D78-954C-C79228BD2D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,244 +466,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F7EAA5-288C-4842-B623-BD30455B333C}">
-  <dimension ref="C2:N22"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="5.42578125" style="3" customWidth="1"/>
-    <col min="9" max="14" width="4.78515625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="5.375" style="3" customWidth="1"/>
+    <col min="7" max="12" width="4.75" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2</v>
-      </c>
-      <c r="N3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="3:14" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="D7" s="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
       <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
       <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
       <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
       <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
       <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="D15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
       <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="D19" s="4" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="4:11" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="D20" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="D21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="4:11" ht="18.45" x14ac:dyDescent="0.35">
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/other2/thomas/usaco/shuffle/shuffle.xlsx
+++ b/other2/thomas/usaco/shuffle/shuffle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\other2\thomas\usaco\shuffle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\usaco\shuffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1B1A6-8E03-4FE6-8EC9-7C4315E75878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6427107E-2819-4469-955F-A20A8AB9F4A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11085" xr2:uid="{D83D4C4C-BB6B-4D78-954C-C79228BD2D65}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11090" xr2:uid="{D83D4C4C-BB6B-4D78-954C-C79228BD2D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +83,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +110,22 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,12 +148,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,9 +190,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,243 +515,550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F7EAA5-288C-4842-B623-BD30455B333C}">
-  <dimension ref="A2:L22"/>
+  <dimension ref="B2:AY25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="6" width="5.375" style="3" customWidth="1"/>
-    <col min="7" max="12" width="4.75" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="8" width="5.4140625" style="3" customWidth="1"/>
+    <col min="9" max="14" width="4.75" style="3" customWidth="1"/>
+    <col min="15" max="51" width="4.33203125" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
       <c r="K2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
       </c>
       <c r="K3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="3:14" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
       <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
       <c r="I11" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
       <c r="I13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
+    <row r="15" spans="3:14" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+    <row r="20" spans="2:51" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:51" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:51" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="24" spans="2:51" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4</v>
+      </c>
+      <c r="F24" s="12">
+        <v>5</v>
+      </c>
+      <c r="G24" s="12">
+        <v>6</v>
+      </c>
+      <c r="H24" s="12">
+        <v>7</v>
+      </c>
+      <c r="I24" s="12">
+        <v>8</v>
+      </c>
+      <c r="J24" s="12">
+        <v>9</v>
+      </c>
+      <c r="K24" s="12">
+        <v>10</v>
+      </c>
+      <c r="L24" s="12">
+        <v>11</v>
+      </c>
+      <c r="M24" s="12">
+        <v>12</v>
+      </c>
+      <c r="N24" s="10">
+        <v>13</v>
+      </c>
+      <c r="O24" s="12">
+        <v>14</v>
+      </c>
+      <c r="P24" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>16</v>
+      </c>
+      <c r="R24" s="12">
+        <v>17</v>
+      </c>
+      <c r="S24" s="11">
+        <v>18</v>
+      </c>
+      <c r="T24" s="12">
+        <v>19</v>
+      </c>
+      <c r="U24" s="12">
+        <v>20</v>
+      </c>
+      <c r="V24" s="12">
+        <v>21</v>
+      </c>
+      <c r="W24" s="12">
+        <v>22</v>
+      </c>
+      <c r="X24" s="12">
+        <v>23</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>24</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>25</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>26</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>27</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>28</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>29</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>31</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>32</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>33</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>34</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>35</v>
+      </c>
+      <c r="AK24" s="11">
+        <v>36</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>37</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>38</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>39</v>
+      </c>
+      <c r="AO24" s="12">
+        <v>40</v>
+      </c>
+      <c r="AP24" s="11">
+        <v>41</v>
+      </c>
+      <c r="AQ24" s="12">
+        <v>42</v>
+      </c>
+      <c r="AR24" s="12">
+        <v>43</v>
+      </c>
+      <c r="AS24" s="12">
+        <v>44</v>
+      </c>
+      <c r="AT24" s="12">
+        <v>45</v>
+      </c>
+      <c r="AU24" s="12">
+        <v>46</v>
+      </c>
+      <c r="AV24" s="12">
+        <v>47</v>
+      </c>
+      <c r="AW24" s="12">
+        <v>48</v>
+      </c>
+      <c r="AX24" s="12">
+        <v>49</v>
+      </c>
+      <c r="AY24" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:51" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44</v>
+      </c>
+      <c r="G25" s="3">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3">
+        <v>37</v>
+      </c>
+      <c r="I25" s="3">
+        <v>43</v>
+      </c>
+      <c r="J25" s="3">
+        <v>50</v>
+      </c>
+      <c r="K25" s="3">
+        <v>22</v>
+      </c>
+      <c r="L25" s="3">
+        <v>13</v>
+      </c>
+      <c r="M25" s="3">
+        <v>28</v>
+      </c>
+      <c r="N25" s="3">
+        <v>41</v>
+      </c>
+      <c r="O25" s="1">
+        <v>10</v>
+      </c>
+      <c r="P25" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>27</v>
+      </c>
+      <c r="R25" s="1">
+        <v>41</v>
+      </c>
+      <c r="S25" s="1">
+        <v>27</v>
+      </c>
+      <c r="T25" s="1">
+        <v>23</v>
+      </c>
+      <c r="U25" s="1">
+        <v>37</v>
+      </c>
+      <c r="V25" s="1">
+        <v>12</v>
+      </c>
+      <c r="W25" s="1">
+        <v>19</v>
+      </c>
+      <c r="X25" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>36</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>23</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>18</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>44</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>43</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>30</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>35</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>38</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>49</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>25</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>16</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
